--- a/app/static/uploads/excels/MOTA.xlsx
+++ b/app/static/uploads/excels/MOTA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\OneDrive\Escritorio\Proyectos\Ferretería\ferreteria-back\app\static\uploads\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\OneDrive\Escritorio\Proyectos\Ferreteria\ferreteria-back\app\static\uploads\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06281B1C-2E0F-4277-B9AB-A7ABAD60D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F936364-6AE4-4CC6-921F-9D3577411020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2085" windowWidth="19328" windowHeight="10477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1528">
   <si>
     <t>A100</t>
   </si>
@@ -4078,16 +4078,557 @@
   </si>
   <si>
     <t>HERRAMIENTAS MANUALES</t>
+  </si>
+  <si>
+    <t>THT20109</t>
+  </si>
+  <si>
+    <t>APLICADOR DE SILICONA DE ALUMINIO INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>THT21509</t>
+  </si>
+  <si>
+    <t>APLICADOR DE SILICONA DE CHAPA REFORZADO CON CABEZAL GIRATORIO</t>
+  </si>
+  <si>
+    <t>THT21309</t>
+  </si>
+  <si>
+    <t>APLICADOR DE SILICONA DE CHAPA REFORZADO</t>
+  </si>
+  <si>
+    <t>THT21809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APLICADOR DE SILICONA DE CHAPA  </t>
+  </si>
+  <si>
+    <t>THTST12291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOCALLAVE HEXAGONAL 29  MM </t>
+  </si>
+  <si>
+    <t>THTST12081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOCALLAVE HEXAGONAL 8  MM </t>
+  </si>
+  <si>
+    <t>THTST12091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOCALLAVE HEXAGONAL 9  MM </t>
+  </si>
+  <si>
+    <t>THT291408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSCAPOLO 140  MM                                                  </t>
+  </si>
+  <si>
+    <t>THT291908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUSCAPOLO 190  MM                                            </t>
+  </si>
+  <si>
+    <t>THT576002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTA CERAMICA 600  MM  </t>
+  </si>
+  <si>
+    <t>THT561781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORTAVIDRIO 178 MM                                 </t>
+  </si>
+  <si>
+    <t>THT82716</t>
+  </si>
+  <si>
+    <t>CUCHARA ALBAÑIL SOLDADA 7"</t>
+  </si>
+  <si>
+    <t>THT82816</t>
+  </si>
+  <si>
+    <t>CUCHARA ALBAÑIL SOLDADA 8"</t>
+  </si>
+  <si>
+    <t>TSDPH0075</t>
+  </si>
+  <si>
+    <t>DESTORNILLADOR CROMO VANADIO PH 0 X 75  MM</t>
+  </si>
+  <si>
+    <t>TSDPH1100</t>
+  </si>
+  <si>
+    <t>DESTORNILLADOR CROMO VANADIO PH 1 X 100  MM</t>
+  </si>
+  <si>
+    <t>TSDPH2125</t>
+  </si>
+  <si>
+    <t>DESTORNILLADOR CROMO VANADIO PH 2 X 125  MM</t>
+  </si>
+  <si>
+    <t>TSDSL4100</t>
+  </si>
+  <si>
+    <t>DESTORNILLADOR CROMO VANADIO PLANO 4  MM X 100  MM</t>
+  </si>
+  <si>
+    <t>THT265100</t>
+  </si>
+  <si>
+    <t>DESTORNILLADOR CROMO VANADIO PLANO 5  MM X 100  MM</t>
+  </si>
+  <si>
+    <t>TSDSL6125</t>
+  </si>
+  <si>
+    <t>DESTORNILLADOR CROMO VANADIO PLANO 6  MM X 125  MM</t>
+  </si>
+  <si>
+    <t>THT311425</t>
+  </si>
+  <si>
+    <t>ENGRAMPADORA MANUAL 4 -14  MM</t>
+  </si>
+  <si>
+    <t>THT31142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGRAMPADORA MANUAL 6 -14  MM PREMIUM  </t>
+  </si>
+  <si>
+    <t>THT39101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMPA 10  MM X 0.7  MM X 1000 UNIDADES </t>
+  </si>
+  <si>
+    <t>THT39102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMPA 10  MM X 1.2  MM X 1000 UNIDADES </t>
+  </si>
+  <si>
+    <t>THT3981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMPA 8  MM X 0.7  MM X 1000 UNIDADES </t>
+  </si>
+  <si>
+    <t>THT3982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMPA 8  MM X 1.2  MM X 1000 UNIDADES  </t>
+  </si>
+  <si>
+    <t>THT250606</t>
+  </si>
+  <si>
+    <t>JUEGO DE 6 DESTORNILLADORES PREMIUM</t>
+  </si>
+  <si>
+    <t>THTIS566</t>
+  </si>
+  <si>
+    <t>JUEGO DE 6 DESTORNILLADORES AISLADOS 1000V</t>
+  </si>
+  <si>
+    <t>THT141451</t>
+  </si>
+  <si>
+    <t>CAJA DE BOCALLAVES Y ACCESORIOS ENCASTRE 1/4" 45 PIEZAS</t>
+  </si>
+  <si>
+    <t>THT421441</t>
+  </si>
+  <si>
+    <t>CAJA DE BOCALLAVES Y ACCESORIOS ENCASTRE 1/4" Y 1/2" 44 PIEZAS</t>
+  </si>
+  <si>
+    <t>THKTHP21006</t>
+  </si>
+  <si>
+    <t>CAJA DE HERRAMIENTAS MANUALES 100 PIEZAS EN MALETIN</t>
+  </si>
+  <si>
+    <t>THKTHP21426</t>
+  </si>
+  <si>
+    <t>CAJA DE HERRAMIENTAS MANUALES 142 PIEZAS EN MALETIN</t>
+  </si>
+  <si>
+    <t>THT102286</t>
+  </si>
+  <si>
+    <t>JUEGO DE LLAVES COMBINADAS METRICAS EN SOPORTE PLASTICO 8 PIEZAS</t>
+  </si>
+  <si>
+    <t>TAC51101D</t>
+  </si>
+  <si>
+    <t>JUEGO DE HOJAS DE SIERRA PARA CALADORA</t>
+  </si>
+  <si>
+    <t>THTJ214042</t>
+  </si>
+  <si>
+    <t>JUEGO DE 4 PINZAS SEEGER CROMO VANADIO CON ESTUCHE</t>
+  </si>
+  <si>
+    <t>TAC731251</t>
+  </si>
+  <si>
+    <t>LIJA CIRCULAR 125  MM PARA LIJADORA ROTO ORBITAL 5 UNIDADES</t>
+  </si>
+  <si>
+    <t>TAC731501</t>
+  </si>
+  <si>
+    <t>LIJA CIRCULAR 150  MM PARA LIJADORA ROTO ORBITAL 5 UNIDADES</t>
+  </si>
+  <si>
+    <t>THT106126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLAVE CRIQUE 1/2" 260  MM     </t>
+  </si>
+  <si>
+    <t>THT106146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LLAVE CRIQUE 1/4" 158  MM   </t>
+  </si>
+  <si>
+    <t>THT11101</t>
+  </si>
+  <si>
+    <t>MANGUERA NEUMATICA 5/8" X 10 METROS CON ACOPLE</t>
+  </si>
+  <si>
+    <t>TMT46001</t>
+  </si>
+  <si>
+    <t>MULTIMETRO TESTER DIGITAL 600V</t>
+  </si>
+  <si>
+    <t>THT845016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINCEL 25 MM (ESMALTE) </t>
+  </si>
+  <si>
+    <t>THT845156</t>
+  </si>
+  <si>
+    <t>PINCEL 38 MM (ESMALTE)</t>
+  </si>
+  <si>
+    <t>THT845026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINCEL 50 MM (ESMALTE)  </t>
+  </si>
+  <si>
+    <t>THT845256</t>
+  </si>
+  <si>
+    <t>PINCEL 63 MM (ESMALTE)</t>
+  </si>
+  <si>
+    <t>THT845036</t>
+  </si>
+  <si>
+    <t>PINCEL 75 MM (ESMALTE)</t>
+  </si>
+  <si>
+    <t>THT845046</t>
+  </si>
+  <si>
+    <t>PINCEL 100 MM (ESMALTE)</t>
+  </si>
+  <si>
+    <t>THT840106</t>
+  </si>
+  <si>
+    <t>PINCEL 25 MM (LATEX)</t>
+  </si>
+  <si>
+    <t>THT840156</t>
+  </si>
+  <si>
+    <t>PINCEL 38 MM (LATEX)</t>
+  </si>
+  <si>
+    <t>THT840206</t>
+  </si>
+  <si>
+    <t>PINCEL 50 MM (LATEX)</t>
+  </si>
+  <si>
+    <t>THT840256</t>
+  </si>
+  <si>
+    <t>PINCEL 63 MM (LATEX)</t>
+  </si>
+  <si>
+    <t>THT840306</t>
+  </si>
+  <si>
+    <t>PINCEL 75 MM (LATEX)</t>
+  </si>
+  <si>
+    <t>THT840406</t>
+  </si>
+  <si>
+    <t>PINCEL 100 MM (LATEX)</t>
+  </si>
+  <si>
+    <t>TMT762001</t>
+  </si>
+  <si>
+    <t>PINZA AMPEROMETRICA DIGITAL AC 400A</t>
+  </si>
+  <si>
+    <t>TMT4100041</t>
+  </si>
+  <si>
+    <t>PINZA AMPEROMETRICA DIGITAL AC 1000A</t>
+  </si>
+  <si>
+    <t>TACIM16PH223</t>
+  </si>
+  <si>
+    <t>PUNTA PHILIPS PH 2 X 50  MM 1/4" ALTO IMPACTO</t>
+  </si>
+  <si>
+    <t>TACIM16PH233</t>
+  </si>
+  <si>
+    <t>PUNTA PHILIPS PH 2 X 65  MM 1/4" DOBLE PUNTA ALTO IMPACTO</t>
+  </si>
+  <si>
+    <t>TACIM16PH263</t>
+  </si>
+  <si>
+    <t>PUNTA PHILIPS PH 2 X 150  MM 1/4" ALTO IMPACTO</t>
+  </si>
+  <si>
+    <t>THT85951</t>
+  </si>
+  <si>
+    <t>REPUESTO DE RODILLO 230  MM X 12  MM</t>
+  </si>
+  <si>
+    <t>THT85096</t>
+  </si>
+  <si>
+    <t>RODILLO 230  MM X 12  MM</t>
+  </si>
+  <si>
+    <t>TWLC1256</t>
+  </si>
+  <si>
+    <t>ACANALADORA DE MURO 1500W</t>
+  </si>
+  <si>
+    <t>TAGLI21154</t>
+  </si>
+  <si>
+    <t>AMOLADORA ANGULAR INALAMBRICA 20V BL 115 MM</t>
+  </si>
+  <si>
+    <t>TG12018026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOLADORA ANGULAR 2000W/180 MM   </t>
+  </si>
+  <si>
+    <t>TG1252306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOLADORA ANGULAR 2400W/230 MM   </t>
+  </si>
+  <si>
+    <t>TG10711556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMOLADORA ANGULAR 750W/115 MM   </t>
+  </si>
+  <si>
+    <t>TBG15015</t>
+  </si>
+  <si>
+    <t>AMOLADORA DE BANCO 150W</t>
+  </si>
+  <si>
+    <t>TBG35020</t>
+  </si>
+  <si>
+    <t>AMOLADORA DE BANCO 350W</t>
+  </si>
+  <si>
+    <t>TFBLI20011</t>
+  </si>
+  <si>
+    <t>BATERIA LITIO 20V/2A</t>
+  </si>
+  <si>
+    <t>TFBLI20021</t>
+  </si>
+  <si>
+    <t>BATERIA LITIO 20V/4A</t>
+  </si>
+  <si>
+    <t>TBC1601</t>
+  </si>
+  <si>
+    <t>CARGADOR DE BATERIA 12V/24V</t>
+  </si>
+  <si>
+    <t>TFCLI2001</t>
+  </si>
+  <si>
+    <t>CARGADOR DE BATERIA 20V 2A</t>
+  </si>
+  <si>
+    <t>TTAC2506</t>
+  </si>
+  <si>
+    <t>COMPRESOR 12V 120 PSI DOBLE PISTON</t>
+  </si>
+  <si>
+    <t>TF2231106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIJADORA ORBITAL DE PALMA 240W  </t>
+  </si>
+  <si>
+    <t>TF2131256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIJADORA ROTO ORBITAL 320W  </t>
+  </si>
+  <si>
+    <t>TH2130016</t>
+  </si>
+  <si>
+    <t>MARTILLO DEMOLEDOR 1300W</t>
+  </si>
+  <si>
+    <t>TG501032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINITORNO 130W + 100 ACCESORIOS EN MALETIN </t>
+  </si>
+  <si>
+    <t>TB20036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISTOLA DE CALOR 2000W TEMPERATURA 350ºC/550ºC  </t>
+  </si>
+  <si>
+    <t>TT3506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISTOLA DE PINTAR 450W   </t>
+  </si>
+  <si>
+    <t>TT5006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISTOLA DE PINTAR 550W   </t>
+  </si>
+  <si>
+    <t>TH118366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTOMARTILLO 1800W   </t>
+  </si>
+  <si>
+    <t>TH308268</t>
+  </si>
+  <si>
+    <t>ROTOMARTILLO 800W</t>
+  </si>
+  <si>
+    <t>TS2045565</t>
+  </si>
+  <si>
+    <t>SIERRA CALADORA 400W</t>
+  </si>
+  <si>
+    <t>TS11218576</t>
+  </si>
+  <si>
+    <t>SIERRA CIRCULAR 1200W/185 MM</t>
+  </si>
+  <si>
+    <t>TS122235622</t>
+  </si>
+  <si>
+    <t>SIERRA CIRCULAR 2200W/235 MM</t>
+  </si>
+  <si>
+    <t>THKTHP1152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALADRO CON PERCUTOR 680W 13 MM + 115 ACCESORIOS EN MALETIN </t>
+  </si>
+  <si>
+    <t>TG1061356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALADRO CON PERCUTOR 680W 13 MM REVERSIBLE VELOCIDAD VARIABLE </t>
+  </si>
+  <si>
+    <t>TG1081316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALADRO CON PERCUTOR 810W 13 MM REVERSIBLE VELOCIDAD VARIABLE </t>
+  </si>
+  <si>
+    <t>TT328151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMOFUSORA 800W/1500W TEMPERATURA 300ºC                      </t>
+  </si>
+  <si>
+    <t>TDLI12428</t>
+  </si>
+  <si>
+    <t>TALADRO INALAMBRICO 12V 750RPM (BATERIA INTERNA CARGA TIPO C)</t>
+  </si>
+  <si>
+    <t>TIDLI1232</t>
+  </si>
+  <si>
+    <t>TALADRO PERCUTOR INALAMBRICO 12V 1350 RPM EN CAJA</t>
+  </si>
+  <si>
+    <t>TIDLI206681</t>
+  </si>
+  <si>
+    <t>TALADRO PERCUTOR INALAMBRICO 20V BL 2200 RPM EN CAJA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-2C0A]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4107,6 +4648,19 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4172,7 +4726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4193,6 +4747,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4208,6 +4786,851 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>752</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>752</xdr:row>
+      <xdr:rowOff>785812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 198" descr="TG106136 TG108136 中">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52DDB5CA-6978-4B2E-B8F8-A36A4BA098E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="14541500"/>
+          <a:ext cx="0" cy="117474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 206" descr="TG1091156 配色图_调整大小">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B792ED60-4A50-41C5-B735-CB1CF4DC3575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="15382875"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>737</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>737</xdr:row>
+      <xdr:rowOff>761999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 210" descr="TG1242306 中">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E98C6D6-AE76-4B79-A6E6-43917A3CCE3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="11834811"/>
+          <a:ext cx="0" cy="109538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>735</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>735</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 206" descr="TG1091156 配色图_调整大小">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA9C5FB-92B7-4880-8BCC-427FB550FDAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="11401425"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20CCF95-D5EB-470C-A80A-DBDC091C45BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="13211175"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEC3D9F-1982-4748-9433-98FA408AA21A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="13211175"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>749</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>749</xdr:row>
+      <xdr:rowOff>762001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 196" descr="TOTAL 850W冲击钻">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D20B0F1A-11B3-4863-8C0E-E1B70619E66B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="13958888"/>
+          <a:ext cx="0" cy="157163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>752</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>752</xdr:row>
+      <xdr:rowOff>785812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 198" descr="TG106136 TG108136 中">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC643998-36D9-4929-AB10-860F9348A332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="14541500"/>
+          <a:ext cx="0" cy="117474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>757</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 206" descr="TG1091156 配色图_调整大小">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ECC3262-BAA3-4B41-A615-19F2D5315642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="15382875"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>737</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>737</xdr:row>
+      <xdr:rowOff>761999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 210" descr="TG1242306 中">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA5F1A6B-8B52-4477-AD46-635BA25CF688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="11834811"/>
+          <a:ext cx="0" cy="109538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>735</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>735</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 206" descr="TG1091156 配色图_调整大小">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A58715E-935C-4B7C-B5E7-B3F985F592C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="11401425"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{358268AA-E05F-4814-8EB8-EC0967A594A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="13211175"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>745</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5FBEE8E-DD27-44AB-9300-376A68B4EC15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="13211175"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>749</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>749</xdr:row>
+      <xdr:rowOff>762001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 196" descr="TOTAL 850W冲击钻">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1707F5B-E5FD-4EFC-8DCC-6EF5F83ED599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="email">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1285875" y="13958888"/>
+          <a:ext cx="0" cy="157163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4507,10 +5930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C674"/>
+  <dimension ref="A1:C764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A734" sqref="A734:XFD734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11934,8 +13357,999 @@
         <v>9256.0159999999996</v>
       </c>
     </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A675" s="8" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B675" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C675" s="9">
+        <v>15042.720000000001</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A676" s="8" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B676" s="8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C676" s="9">
+        <v>12467.840000000002</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A677" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B677" s="8" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C677" s="9">
+        <v>7453.6000000000013</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A678" s="8" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B678" s="8" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C678" s="9">
+        <v>4268.88</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A679" s="8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B679" s="8" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C679" s="10">
+        <v>5353.04</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A680" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B680" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C680" s="10">
+        <v>2236.0800000000004</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A681" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B681" s="8" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C681" s="10">
+        <v>2236.0800000000004</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A682" s="8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B682" s="8" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C682" s="9">
+        <v>1490.7200000000003</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A683" s="8" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B683" s="8" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C683" s="9">
+        <v>1897.2800000000002</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A684" s="8" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B684" s="8" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C684" s="9">
+        <v>64912.12000000001</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A685" s="8" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B685" s="8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C685" s="9">
+        <v>5827.3600000000006</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A686" s="8" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B686" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C686" s="9">
+        <v>4472.1600000000008</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A687" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B687" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C687" s="9">
+        <v>5149.76</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A688" s="8" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B688" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C688" s="9">
+        <v>1422.96</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A689" s="8" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B689" s="8" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C689" s="9">
+        <v>2032.8000000000002</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A690" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B690" s="8" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C690" s="9">
+        <v>2710.4</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A691" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B691" s="8" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C691" s="9">
+        <v>1829.5200000000002</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A692" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B692" s="8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C692" s="9">
+        <v>2032.8000000000002</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A693" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B693" s="8" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C693" s="9">
+        <v>2642.64</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A694" s="8" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B694" s="8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C694" s="9">
+        <v>11138.400000000001</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A695" s="8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B695" s="8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C695" s="9">
+        <v>22276.800000000003</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A696" s="8" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B696" s="8" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C696" s="9">
+        <v>1694.0000000000002</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A697" s="8" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B697" s="8" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C697" s="9">
+        <v>1694.0000000000002</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A698" s="8" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B698" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C698" s="9">
+        <v>1694.0000000000002</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A699" s="8" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B699" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C699" s="9">
+        <v>1694.0000000000002</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A700" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B700" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C700" s="9">
+        <v>11383.68</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A701" s="8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B701" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C701" s="9">
+        <v>18905.04</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A702" s="13" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B702" s="8" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C702" s="9">
+        <v>60306.400000000009</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A703" s="13" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B703" s="8" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C703" s="9">
+        <v>166283.04</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A704" s="13" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B704" s="8" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C704" s="9">
+        <v>240683.52000000002</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A705" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B705" s="8" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C705" s="9">
+        <v>397412.40000000008</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A706" s="14" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B706" s="8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C706" s="9">
+        <v>30220.960000000003</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A707" s="8" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B707" s="8" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C707" s="9">
+        <v>4472.1600000000008</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A708" s="8" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B708" s="8" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C708" s="9">
+        <v>29204.560000000005</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A709" s="8" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B709" s="8" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C709" s="9">
+        <v>1219.68</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A710" s="8" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B710" s="8" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C710" s="9">
+        <v>1761.7600000000002</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A711" s="8" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B711" s="8" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C711" s="9">
+        <v>20937.84</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A712" s="8" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B712" s="8" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C712" s="9">
+        <v>11925.760000000002</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A713" s="8" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B713" s="8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C713" s="9">
+        <v>18295.2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A714" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B714" s="8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C714" s="9">
+        <v>24380.720000000005</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A715" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B715" s="13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C715" s="9">
+        <v>474.32000000000005</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A716" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B716" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C716" s="9">
+        <v>609.84</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A717" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B717" s="13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C717" s="9">
+        <v>1084.1600000000001</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A718" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B718" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C718" s="9">
+        <v>1355.2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A719" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B719" s="13" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C719" s="9">
+        <v>2168.3200000000002</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A720" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B720" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C720" s="9">
+        <v>3116.9600000000005</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A721" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B721" s="13" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C721" s="9">
+        <v>609.84</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A722" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B722" s="13" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C722" s="9">
+        <v>745.36000000000013</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A723" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B723" s="13" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C723" s="9">
+        <v>1016.4000000000001</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A724" s="13" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B724" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C724" s="9">
+        <v>1287.44</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A725" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B725" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C725" s="9">
+        <v>1626.2400000000002</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A726" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B726" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C726" s="9">
+        <v>2168.3200000000002</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A727" s="8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B727" s="8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C727" s="9">
+        <v>38013.360000000001</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A728" s="8" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B728" s="8" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C728" s="9">
+        <v>132674.08000000002</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A729" s="8" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B729" s="8" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C729" s="9">
+        <v>880.88000000000011</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A730" s="8" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B730" s="8" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C730" s="9">
+        <v>1084.1600000000001</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A731" s="8" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B731" s="8" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C731" s="9">
+        <v>2371.6000000000004</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A732" s="8" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B732" s="8" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C732" s="9">
+        <v>2439.36</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A733" s="8" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B733" s="8" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C733" s="9">
+        <v>4539.92</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A734" s="8" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B734" s="8" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C734" s="15">
+        <v>301803.04000000004</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A735" s="8" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B735" s="8" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C735" s="15">
+        <v>115801.84000000001</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A736" s="8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B736" s="8" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C736" s="15">
+        <v>151375.84000000003</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A737" s="8" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B737" s="8" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C737" s="15">
+        <v>203144.48000000004</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A738" s="8" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B738" s="8" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C738" s="15">
+        <v>54208.000000000007</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A739" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B739" s="8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C739" s="15">
+        <v>51855.44000000001</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A740" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B740" s="8" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C740" s="15">
+        <v>104639.08000000002</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A741" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B741" s="8" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C741" s="15">
+        <v>36454.880000000005</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A742" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B742" s="8" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C742" s="15">
+        <v>88155.76</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A743" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B743" s="8" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C743" s="15">
+        <v>133622.72</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A744" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B744" s="8" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C744" s="15">
+        <v>27239.520000000004</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A745" s="8" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B745" s="8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C745" s="15">
+        <v>61137.44000000001</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A746" s="8" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B746" s="8" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C746" s="15">
+        <v>60306.400000000009</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A747" s="8" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B747" s="8" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C747" s="15">
+        <v>85648.639999999999</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A748" s="8" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B748" s="8" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C748" s="15">
+        <v>175553.56000000003</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A749" s="8" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B749" s="8" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C749" s="15">
+        <v>58273.600000000006</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A750" s="8" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B750" s="8" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C750" s="15">
+        <v>50210.160000000011</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A751" s="8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B751" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C751" s="15">
+        <v>39850.720000000001</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A752" s="8" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B752" s="8" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C752" s="15">
+        <v>56063.280000000006</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A753" s="8" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B753" s="8" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C753" s="15">
+        <v>155318.79999999999</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A754" s="8" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B754" s="8" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C754" s="15">
+        <v>87807.720000000016</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A755" s="8" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B755" s="8" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C755" s="15">
+        <v>60306.400000000009</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A756" s="8" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B756" s="8" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C756" s="15">
+        <v>97167.840000000011</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A757" s="8" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B757" s="8" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C757" s="15">
+        <v>209717.20000000004</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A758" s="8" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B758" s="8" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C758" s="15">
+        <v>135520</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A759" s="8" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B759" s="8" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C759" s="15">
+        <v>54208.000000000007</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A760" s="8" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B760" s="8" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C760" s="15">
+        <v>63965.44000000001</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A761" s="8" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B761" s="8" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C761" s="15">
+        <v>95047.680000000008</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A762" s="8" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B762" s="8" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C762" s="15">
+        <v>55834.240000000005</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A763" s="8" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B763" s="8" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C763" s="15">
+        <v>87410.4</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A764" s="8" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B764" s="8" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C764" s="15">
+        <v>97167.840000000011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>